--- a/source_data/Other/cycles_1.xlsx
+++ b/source_data/Other/cycles_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4C6AD3-FEA0-3D4F-B68F-EA4765A0F395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21EFE91-0638-A64D-9FF9-6ED10A62F49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33440" yWindow="4580" windowWidth="33600" windowHeight="19480" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="33440" yWindow="4580" windowWidth="33600" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="257">
   <si>
     <t>Epoch</t>
   </si>
@@ -898,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -983,6 +983,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2361,7 +2364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DCDC2E-1983-374F-887E-CD749D9912B4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -3086,8 +3089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D034D1-007E-EE43-A36B-40FDFE01FACC}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3135,6 +3138,9 @@
       <c r="E2" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="F2" s="33" t="s">
+        <v>35</v>
+      </c>
       <c r="G2" s="10" t="s">
         <v>97</v>
       </c>

--- a/source_data/Other/cycles_1.xlsx
+++ b/source_data/Other/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21EFE91-0638-A64D-9FF9-6ED10A62F49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE01D99-3A35-E848-AC00-4463D567208B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33440" yWindow="4580" windowWidth="33600" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="12420" yWindow="7540" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="258">
   <si>
     <t>Epoch</t>
   </si>
@@ -820,6 +820,9 @@
   </si>
   <si>
     <t>Placebo Comparator Arm</t>
+  </si>
+  <si>
+    <t>ICD-10=1</t>
   </si>
 </sst>
 </file>
@@ -969,6 +972,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -983,9 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1990,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329FB390-8E4D-2044-99CB-68022604372C}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2015,6 +2018,14 @@
       </c>
       <c r="B2" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2099,34 +2110,34 @@
       <c r="A1" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
     </row>
@@ -2134,76 +2145,76 @@
       <c r="A4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
@@ -2462,17 +2473,17 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="1" t="s">
         <v>56</v>
       </c>
@@ -2490,18 +2501,18 @@
       <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="33">
         <v>1</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33">
         <v>2</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32">
+      <c r="H2" s="33"/>
+      <c r="I2" s="33">
         <v>3</v>
       </c>
-      <c r="J2" s="32"/>
+      <c r="J2" s="33"/>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2528,18 +2539,18 @@
       <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2562,18 +2573,18 @@
       <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32" t="s">
+      <c r="H4" s="33"/>
+      <c r="I4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="33"/>
       <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2596,18 +2607,18 @@
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="31"/>
+      <c r="E5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="32"/>
       <c r="K5" s="2" t="s">
         <v>147</v>
       </c>
@@ -3089,7 +3100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D034D1-007E-EE43-A36B-40FDFE01FACC}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3138,7 +3149,7 @@
       <c r="E2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="28" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="10" t="s">
